--- a/teaching/traditional_assets/database/data/brazil/brazil_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.05605</v>
+        <v>0.08635000000000001</v>
       </c>
       <c r="E2">
-        <v>0.05365</v>
+        <v>0.0418</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,85 +609,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>95</v>
+        <v>122.8</v>
       </c>
       <c r="L2">
-        <v>0.1706484641638225</v>
+        <v>0.2073273678878947</v>
       </c>
       <c r="M2">
-        <v>35.3</v>
+        <v>46.5245</v>
       </c>
       <c r="N2">
-        <v>0.04409743910056214</v>
+        <v>0.05549862817607062</v>
       </c>
       <c r="O2">
-        <v>0.371578947368421</v>
+        <v>0.378864006514658</v>
       </c>
       <c r="P2">
-        <v>35.3</v>
+        <v>46.4785</v>
       </c>
       <c r="Q2">
-        <v>0.04409743910056214</v>
+        <v>0.05544375521889539</v>
       </c>
       <c r="R2">
-        <v>0.371578947368421</v>
+        <v>0.3784894136807818</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.04599999999999982</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000988726369977105</v>
       </c>
       <c r="U2">
-        <v>665.5</v>
+        <v>1238.4</v>
       </c>
       <c r="V2">
-        <v>0.8313554028732042</v>
+        <v>1.477275438387212</v>
       </c>
       <c r="W2">
-        <v>0.1169887967434157</v>
+        <v>0.1102233645011941</v>
       </c>
       <c r="X2">
-        <v>0.1328048265912034</v>
+        <v>0.1898079483513983</v>
       </c>
       <c r="Y2">
-        <v>-0.01581602984778772</v>
+        <v>-0.07958458385020419</v>
       </c>
       <c r="Z2">
-        <v>0.1282630232933207</v>
+        <v>0.09907333065703197</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06135588740800932</v>
+        <v>0.05566985909404883</v>
       </c>
       <c r="AC2">
-        <v>-0.06135588740800932</v>
+        <v>-0.05566985909404883</v>
       </c>
       <c r="AD2">
-        <v>2714.3</v>
+        <v>4875.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2714.3</v>
+        <v>4875.8</v>
       </c>
       <c r="AG2">
-        <v>2048.8</v>
+        <v>3637.4</v>
       </c>
       <c r="AH2">
-        <v>0.7722487766017981</v>
+        <v>0.8532927320137904</v>
       </c>
       <c r="AI2">
-        <v>0.7580149687220733</v>
+        <v>0.819613710097665</v>
       </c>
       <c r="AJ2">
-        <v>0.7190538026883796</v>
+        <v>0.812699689434055</v>
       </c>
       <c r="AK2">
-        <v>0.7027750145782595</v>
+        <v>0.7721897887697697</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banestes S.A - Banco do Estado do Espírito Santo (BOVESPA:BEES3)</t>
+          <t>Banco do Estado de Sergipe S.A. (BOVESPA:BGIP4)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0726</v>
+        <v>0.233</v>
       </c>
       <c r="E3">
-        <v>0.09630000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>50.9</v>
+        <v>10.8</v>
       </c>
       <c r="L3">
-        <v>0.1831594098596618</v>
+        <v>0.1003717472118959</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>3.7485</v>
       </c>
       <c r="N3">
-        <v>0.04947555907381753</v>
+        <v>0.03614754098360656</v>
       </c>
       <c r="O3">
-        <v>0.4911591355599214</v>
+        <v>0.3470833333333333</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>3.7485</v>
       </c>
       <c r="Q3">
-        <v>0.04947555907381753</v>
+        <v>0.03614754098360656</v>
       </c>
       <c r="R3">
-        <v>0.4911591355599214</v>
+        <v>0.3470833333333333</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>55.6</v>
+        <v>237.3</v>
       </c>
       <c r="V3">
-        <v>0.1100336433801702</v>
+        <v>2.288331726133076</v>
       </c>
       <c r="W3">
-        <v>0.1413888888888889</v>
+        <v>0.1181619256017506</v>
       </c>
       <c r="X3">
-        <v>0.1681324438567216</v>
+        <v>0.06077370760841536</v>
       </c>
       <c r="Y3">
-        <v>-0.02674355496783271</v>
+        <v>0.0573882179933352</v>
       </c>
       <c r="Z3">
-        <v>0.06952366656659661</v>
+        <v>-1.761047463175124</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.05966806469325142</v>
+        <v>0.05247872550769265</v>
       </c>
       <c r="AC3">
-        <v>-0.05966806469325142</v>
+        <v>-0.05247872550769265</v>
       </c>
       <c r="AD3">
-        <v>2239</v>
+        <v>38.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2239</v>
+        <v>38.6</v>
       </c>
       <c r="AG3">
-        <v>2183.4</v>
+        <v>-198.7</v>
       </c>
       <c r="AH3">
-        <v>0.8158729001931275</v>
+        <v>0.2712579058327477</v>
       </c>
       <c r="AI3">
-        <v>0.8560831995105911</v>
+        <v>0.2852919438285292</v>
       </c>
       <c r="AJ3">
-        <v>0.8120653103730426</v>
+        <v>2.091578947368421</v>
       </c>
       <c r="AK3">
-        <v>0.8529572622861161</v>
+        <v>1.948039215686274</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0395</v>
+        <v>-0.0122</v>
       </c>
       <c r="E4">
-        <v>0.011</v>
+        <v>0.0132</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>44.1</v>
+        <v>60.3</v>
       </c>
       <c r="L4">
-        <v>0.1581779053084648</v>
+        <v>0.279814385150812</v>
       </c>
       <c r="M4">
-        <v>10.3</v>
+        <v>18.9</v>
       </c>
       <c r="N4">
-        <v>0.03489159891598916</v>
+        <v>0.0784557907845579</v>
       </c>
       <c r="O4">
-        <v>0.2335600907029479</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="P4">
-        <v>10.3</v>
+        <v>18.9</v>
       </c>
       <c r="Q4">
-        <v>0.03489159891598916</v>
+        <v>0.0784557907845579</v>
       </c>
       <c r="R4">
-        <v>0.2335600907029479</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,60 +883,304 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>609.9</v>
+        <v>183.8</v>
       </c>
       <c r="V4">
-        <v>2.066056910569106</v>
+        <v>0.7629721876297219</v>
       </c>
       <c r="W4">
-        <v>0.09258870459794247</v>
+        <v>0.1230361150785554</v>
       </c>
       <c r="X4">
-        <v>0.09747720932568518</v>
+        <v>0.08775538275785405</v>
       </c>
       <c r="Y4">
-        <v>-0.004888504727742715</v>
+        <v>0.03528073232070134</v>
       </c>
       <c r="Z4">
-        <v>0.8125910813173999</v>
+        <v>0.6061884669479605</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06304371012276722</v>
+        <v>0.05456830755983145</v>
       </c>
       <c r="AC4">
-        <v>-0.06304371012276722</v>
+        <v>-0.05456830755983145</v>
       </c>
       <c r="AD4">
-        <v>475.3</v>
+        <v>328</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>475.3</v>
+        <v>328</v>
       </c>
       <c r="AG4">
-        <v>-134.6</v>
+        <v>144.2</v>
       </c>
       <c r="AH4">
-        <v>0.6168721609344582</v>
+        <v>0.5765512392336087</v>
       </c>
       <c r="AI4">
-        <v>0.4923347835094261</v>
+        <v>0.4449871116537783</v>
       </c>
       <c r="AJ4">
-        <v>-0.8381070983810707</v>
+        <v>0.3744481952739548</v>
       </c>
       <c r="AK4">
-        <v>-0.3786216596343177</v>
+        <v>0.2606181095246702</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Banestes S.A - Banco do Estado do Espírito Santo (BOVESPA:BEES3)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Banks (Regional)</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.0687</v>
+      </c>
+      <c r="E5">
+        <v>0.0704</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>38.5</v>
+      </c>
+      <c r="L5">
+        <v>0.1765245300320954</v>
+      </c>
+      <c r="M5">
+        <v>20.4</v>
+      </c>
+      <c r="N5">
+        <v>0.05982404692082111</v>
+      </c>
+      <c r="O5">
+        <v>0.5298701298701298</v>
+      </c>
+      <c r="P5">
+        <v>20.4</v>
+      </c>
+      <c r="Q5">
+        <v>0.05982404692082111</v>
+      </c>
+      <c r="R5">
+        <v>0.5298701298701298</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>61.3</v>
+      </c>
+      <c r="V5">
+        <v>0.1797653958944281</v>
+      </c>
+      <c r="W5">
+        <v>0.1022848034006376</v>
+      </c>
+      <c r="X5">
+        <v>0.2918605139449425</v>
+      </c>
+      <c r="Y5">
+        <v>-0.1895757105443049</v>
+      </c>
+      <c r="Z5">
+        <v>0.0852019689038206</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.0567714106282662</v>
+      </c>
+      <c r="AC5">
+        <v>-0.0567714106282662</v>
+      </c>
+      <c r="AD5">
+        <v>3016.3</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>3016.3</v>
+      </c>
+      <c r="AG5">
+        <v>2955</v>
+      </c>
+      <c r="AH5">
+        <v>0.8984302862419206</v>
+      </c>
+      <c r="AI5">
+        <v>0.9118198307134221</v>
+      </c>
+      <c r="AJ5">
+        <v>0.8965412621359223</v>
+      </c>
+      <c r="AK5">
+        <v>0.9101549265407953</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Banco Alfa de Investimento S.A. (BOVESPA:BRIV4)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Banks (Regional)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.104</v>
+      </c>
+      <c r="E6">
+        <v>-0.008659999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13.2</v>
+      </c>
+      <c r="L6">
+        <v>0.2583170254403131</v>
+      </c>
+      <c r="M6">
+        <v>3.476</v>
+      </c>
+      <c r="N6">
+        <v>0.02276358873608383</v>
+      </c>
+      <c r="O6">
+        <v>0.2633333333333334</v>
+      </c>
+      <c r="P6">
+        <v>3.43</v>
+      </c>
+      <c r="Q6">
+        <v>0.02246234446627374</v>
+      </c>
+      <c r="R6">
+        <v>0.2598484848484849</v>
+      </c>
+      <c r="S6">
+        <v>0.04599999999999982</v>
+      </c>
+      <c r="T6">
+        <v>0.01323360184119673</v>
+      </c>
+      <c r="U6">
+        <v>756</v>
+      </c>
+      <c r="V6">
+        <v>4.950884086444008</v>
+      </c>
+      <c r="W6">
+        <v>0.03450078410872974</v>
+      </c>
+      <c r="X6">
+        <v>0.317257611885869</v>
+      </c>
+      <c r="Y6">
+        <v>-0.2827568277771392</v>
+      </c>
+      <c r="Z6">
+        <v>0.01635618718391909</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.05683148356705298</v>
+      </c>
+      <c r="AC6">
+        <v>-0.05683148356705298</v>
+      </c>
+      <c r="AD6">
+        <v>1492.9</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1492.9</v>
+      </c>
+      <c r="AG6">
+        <v>736.9000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.9072070977151191</v>
+      </c>
+      <c r="AI6">
+        <v>0.8441617189708793</v>
+      </c>
+      <c r="AJ6">
+        <v>0.8283498201438849</v>
+      </c>
+      <c r="AK6">
+        <v>0.7278024691358025</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>0</v>
       </c>
     </row>
